--- a/UI_Suite/test_data/ui_test_data.xlsx
+++ b/UI_Suite/test_data/ui_test_data.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9540"/>
   </bookViews>
   <sheets>
-    <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ValidRegisterTest" sheetId="3" r:id="rId1"/>
+    <sheet name="InvalidLoginTest" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>${username}</t>
   </si>
@@ -64,6 +64,45 @@
   </si>
   <si>
     <t>Login Failure</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>ken123</t>
+  </si>
+  <si>
+    <t>${firstname}</t>
+  </si>
+  <si>
+    <t>${familyname}</t>
+  </si>
+  <si>
+    <t>${phone}</t>
+  </si>
+  <si>
+    <t>${expected_value}</t>
+  </si>
+  <si>
+    <t>ken_01</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>ken_02</t>
+  </si>
+  <si>
+    <t>ken124</t>
   </si>
 </sst>
 </file>
@@ -381,10 +420,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>7888</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>7888</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -468,16 +599,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>